--- a/SchedulingData/dynamic9/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_17.xlsx
@@ -462,230 +462,230 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>61.62</v>
+        <v>88.94</v>
       </c>
       <c r="E2" t="n">
-        <v>27.008</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.02</v>
+        <v>48.4</v>
       </c>
       <c r="E3" t="n">
-        <v>25.968</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>48.4</v>
       </c>
       <c r="D4" t="n">
-        <v>29.88</v>
+        <v>103.04</v>
       </c>
       <c r="E4" t="n">
-        <v>27.712</v>
+        <v>22.516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61.62</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>106.36</v>
+        <v>86.2</v>
       </c>
       <c r="E5" t="n">
-        <v>23.664</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29.88</v>
+        <v>86.2</v>
       </c>
       <c r="D6" t="n">
-        <v>93.8</v>
+        <v>143.34</v>
       </c>
       <c r="E6" t="n">
-        <v>23.92</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93.8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>144.58</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>20.972</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>57.7</v>
+        <v>53.6</v>
       </c>
       <c r="E8" t="n">
-        <v>25.92</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D9" t="n">
-        <v>65.28</v>
+        <v>135.7</v>
       </c>
       <c r="E9" t="n">
-        <v>26.172</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>144.58</v>
+        <v>53.6</v>
       </c>
       <c r="D10" t="n">
-        <v>198.42</v>
+        <v>104.64</v>
       </c>
       <c r="E10" t="n">
-        <v>17.228</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57.7</v>
+        <v>143.34</v>
       </c>
       <c r="D11" t="n">
-        <v>115.4</v>
+        <v>199.86</v>
       </c>
       <c r="E11" t="n">
-        <v>21.78</v>
+        <v>16.924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>48.3</v>
       </c>
       <c r="E12" t="n">
-        <v>25.58</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81</v>
+        <v>103.04</v>
       </c>
       <c r="D13" t="n">
-        <v>147.9</v>
+        <v>172.52</v>
       </c>
       <c r="E13" t="n">
-        <v>21.98</v>
+        <v>18.688</v>
       </c>
     </row>
     <row r="14">
@@ -694,131 +694,131 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>65.28</v>
+        <v>199.86</v>
       </c>
       <c r="D14" t="n">
-        <v>126.32</v>
+        <v>251.18</v>
       </c>
       <c r="E14" t="n">
-        <v>22.688</v>
+        <v>13.932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>198.42</v>
+        <v>135.7</v>
       </c>
       <c r="D15" t="n">
-        <v>269.32</v>
+        <v>183.1</v>
       </c>
       <c r="E15" t="n">
-        <v>11.768</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>269.32</v>
+        <v>251.18</v>
       </c>
       <c r="D16" t="n">
-        <v>301.64</v>
+        <v>298.44</v>
       </c>
       <c r="E16" t="n">
-        <v>9.176</v>
+        <v>11.336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62.02</v>
+        <v>183.1</v>
       </c>
       <c r="D17" t="n">
-        <v>143.5</v>
+        <v>238.78</v>
       </c>
       <c r="E17" t="n">
-        <v>21.92</v>
+        <v>15.652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>147.9</v>
+        <v>48.3</v>
       </c>
       <c r="D18" t="n">
-        <v>203.5</v>
+        <v>116.72</v>
       </c>
       <c r="E18" t="n">
-        <v>17.06</v>
+        <v>21.628</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106.36</v>
+        <v>88.94</v>
       </c>
       <c r="D19" t="n">
-        <v>167.14</v>
+        <v>138.16</v>
       </c>
       <c r="E19" t="n">
-        <v>20.696</v>
+        <v>22.464</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>143.5</v>
+        <v>138.16</v>
       </c>
       <c r="D20" t="n">
-        <v>183.7</v>
+        <v>192.44</v>
       </c>
       <c r="E20" t="n">
-        <v>18.54</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="21">
@@ -827,74 +827,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>115.4</v>
+        <v>172.52</v>
       </c>
       <c r="D21" t="n">
-        <v>163.4</v>
+        <v>224.62</v>
       </c>
       <c r="E21" t="n">
-        <v>17.62</v>
+        <v>14.608</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>167.14</v>
+        <v>116.72</v>
       </c>
       <c r="D22" t="n">
-        <v>209.38</v>
+        <v>183.3</v>
       </c>
       <c r="E22" t="n">
-        <v>17.112</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>126.32</v>
+        <v>224.62</v>
       </c>
       <c r="D23" t="n">
-        <v>197.62</v>
+        <v>302.22</v>
       </c>
       <c r="E23" t="n">
-        <v>19.648</v>
+        <v>10.468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>163.4</v>
+        <v>183.3</v>
       </c>
       <c r="D24" t="n">
-        <v>231.32</v>
+        <v>243.9</v>
       </c>
       <c r="E24" t="n">
-        <v>14.408</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>197.62</v>
+        <v>298.44</v>
       </c>
       <c r="D25" t="n">
-        <v>274.68</v>
+        <v>350.76</v>
       </c>
       <c r="E25" t="n">
-        <v>17.052</v>
+        <v>8.744</v>
       </c>
     </row>
     <row r="26">
@@ -922,74 +922,74 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>183.7</v>
+        <v>104.64</v>
       </c>
       <c r="D26" t="n">
-        <v>232.28</v>
+        <v>153.72</v>
       </c>
       <c r="E26" t="n">
-        <v>15.812</v>
+        <v>20.068</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>203.5</v>
+        <v>302.22</v>
       </c>
       <c r="D27" t="n">
-        <v>275.7</v>
+        <v>363.1</v>
       </c>
       <c r="E27" t="n">
-        <v>13.42</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>231.32</v>
+        <v>153.72</v>
       </c>
       <c r="D28" t="n">
-        <v>293.92</v>
+        <v>231.64</v>
       </c>
       <c r="E28" t="n">
-        <v>10.748</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>274.68</v>
+        <v>231.64</v>
       </c>
       <c r="D29" t="n">
-        <v>328.4</v>
+        <v>283.34</v>
       </c>
       <c r="E29" t="n">
-        <v>12.32</v>
+        <v>13.816</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>275.7</v>
+        <v>192.44</v>
       </c>
       <c r="D30" t="n">
-        <v>325.08</v>
+        <v>245.72</v>
       </c>
       <c r="E30" t="n">
-        <v>9.612</v>
+        <v>15.928</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>209.38</v>
+        <v>243.9</v>
       </c>
       <c r="D31" t="n">
-        <v>286.98</v>
+        <v>326.4</v>
       </c>
       <c r="E31" t="n">
-        <v>12.972</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
